--- a/TEMOA_Europe_Results/_6_Heat.xlsx
+++ b/TEMOA_Europe_Results/_6_Heat.xlsx
@@ -562,13 +562,13 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>58.03027737499998</v>
+        <v>58.03027737499999</v>
       </c>
       <c r="E2">
         <v>44.5913048</v>
       </c>
       <c r="F2">
-        <v>33.44347859999999</v>
+        <v>33.4434786</v>
       </c>
       <c r="G2">
         <v>22.2956524</v>
@@ -600,13 +600,13 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>652.1899942468615</v>
+        <v>637.6618205383645</v>
       </c>
       <c r="E3">
-        <v>459.8765850254038</v>
+        <v>430.5016177307103</v>
       </c>
       <c r="F3">
-        <v>395.3741274</v>
+        <v>395.3741273999999</v>
       </c>
       <c r="G3">
         <v>167.973858</v>
@@ -638,16 +638,16 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>181.4117795700612</v>
+        <v>175.6940652</v>
       </c>
       <c r="E4">
-        <v>226.69423681686</v>
+        <v>225.8040976176</v>
       </c>
       <c r="F4">
-        <v>169.3530732132</v>
+        <v>157.3398715268503</v>
       </c>
       <c r="G4">
-        <v>70.27762607999999</v>
+        <v>70.27762608</v>
       </c>
       <c r="H4">
         <v>35.13881304</v>
@@ -679,13 +679,13 @@
         <v>61.64567187999998</v>
       </c>
       <c r="E5">
-        <v>65.18745474114488</v>
+        <v>62.45458124042079</v>
       </c>
       <c r="F5">
-        <v>36.98740312799999</v>
+        <v>36.98740312799998</v>
       </c>
       <c r="G5">
-        <v>24.658268752</v>
+        <v>24.65826875199999</v>
       </c>
       <c r="H5">
         <v>12.329134376</v>
@@ -720,7 +720,7 @@
         <v>5.537253600000001</v>
       </c>
       <c r="F6">
-        <v>4.1529402</v>
+        <v>4.152940200000001</v>
       </c>
       <c r="G6">
         <v>2.7686268</v>
@@ -790,19 +790,19 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>127.52628525</v>
+        <v>130.9434068616352</v>
       </c>
       <c r="E8">
-        <v>67.48264237459611</v>
+        <v>96.85760966928954</v>
       </c>
       <c r="F8">
         <v>115.6701</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>63.76314262499999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>57.57527799566871</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>47.7301356</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>19.18949441052732</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>34.53997333333333</v>
       </c>
       <c r="G10">
-        <v>29.53167719999999</v>
+        <v>29.5316772</v>
       </c>
       <c r="H10">
         <v>19.6877848</v>
@@ -910,16 +910,16 @@
         <v>2.083375</v>
       </c>
       <c r="F11">
-        <v>1.6667</v>
+        <v>1.900038</v>
       </c>
       <c r="G11">
-        <v>1.250025</v>
+        <v>1.39652793</v>
       </c>
       <c r="H11">
         <v>0.8333499999999998</v>
       </c>
       <c r="I11">
-        <v>0.4166750000000002</v>
+        <v>0.4166750000000001</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -942,13 +942,13 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>0.0565538325</v>
+        <v>0.05655383249999999</v>
       </c>
       <c r="E12">
-        <v>0.04712819375000001</v>
+        <v>0.04712819375</v>
       </c>
       <c r="F12">
-        <v>0.037702555</v>
+        <v>0.03770255500000001</v>
       </c>
       <c r="G12">
         <v>0.02827691625</v>
@@ -989,7 +989,7 @@
         <v>41.81252139999999</v>
       </c>
       <c r="G13">
-        <v>92.38326512500001</v>
+        <v>82.7447613239634</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>288.1587205031386</v>
+        <v>299.2697726000001</v>
       </c>
       <c r="E14">
         <v>299.2697726000001</v>
@@ -1027,13 +1027,13 @@
         <v>299.2697726000001</v>
       </c>
       <c r="G14">
+        <v>299.2697726000002</v>
+      </c>
+      <c r="H14">
         <v>299.2697726000001</v>
       </c>
-      <c r="H14">
-        <v>298.760962524522</v>
-      </c>
       <c r="I14">
-        <v>229.462416089575</v>
+        <v>299.2697726000001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>545.0900848299387</v>
+        <v>550.8077991999999</v>
       </c>
       <c r="E15">
-        <v>389.7827631831403</v>
+        <v>371.4834079718727</v>
       </c>
       <c r="F15">
-        <v>298.8579267868</v>
+        <v>310.8711284731498</v>
       </c>
       <c r="G15">
-        <v>486.7722932108684</v>
+        <v>550.8077992</v>
       </c>
       <c r="H15">
-        <v>30.41164152747651</v>
+        <v>42.32326722997654</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1097,28 +1097,28 @@
         <v>413.0733681200001</v>
       </c>
       <c r="E16">
-        <v>574.545083258855</v>
+        <v>577.2779567595792</v>
       </c>
       <c r="F16">
-        <v>731.9036235386666</v>
+        <v>731.9036235386667</v>
       </c>
       <c r="G16">
         <v>731.9036235386667</v>
       </c>
       <c r="H16">
+        <v>731.9036235386668</v>
+      </c>
+      <c r="I16">
         <v>731.9036235386666</v>
       </c>
-      <c r="I16">
-        <v>767.0073205706835</v>
-      </c>
       <c r="J16">
-        <v>662.54231613399</v>
+        <v>676.406982085147</v>
       </c>
       <c r="K16">
-        <v>205.2099216155416</v>
+        <v>609.9738851814406</v>
       </c>
       <c r="L16">
-        <v>205.2099216155416</v>
+        <v>609.9738851814406</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1138,25 +1138,25 @@
         <v>33.80837139999999</v>
       </c>
       <c r="F17">
-        <v>43.3363598</v>
+        <v>43.10302179999999</v>
       </c>
       <c r="G17">
-        <v>43.3363598</v>
+        <v>59.12780291211293</v>
       </c>
       <c r="H17">
-        <v>139.3704967257426</v>
+        <v>165.9634228569156</v>
       </c>
       <c r="I17">
-        <v>158.2170641854856</v>
+        <v>207.3204754900609</v>
       </c>
       <c r="J17">
-        <v>188.0494380078405</v>
+        <v>247.9290643531532</v>
       </c>
       <c r="K17">
-        <v>366.1716603782871</v>
+        <v>368.3868582061967</v>
       </c>
       <c r="L17">
-        <v>366.1716603782871</v>
+        <v>368.3868582061967</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1170,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>0.1494461674999999</v>
+        <v>0.1494461675</v>
       </c>
       <c r="E18">
         <v>1.01487180625</v>
@@ -1185,16 +1185,16 @@
         <v>2.656851277499999</v>
       </c>
       <c r="I18">
-        <v>201.4386149214859</v>
+        <v>1.791425638749999</v>
       </c>
       <c r="J18">
-        <v>364.259952411314</v>
+        <v>1.158341922403837</v>
       </c>
       <c r="K18">
-        <v>1066.32807032851</v>
+        <v>577.2228774492029</v>
       </c>
       <c r="L18">
-        <v>1066.32807032851</v>
+        <v>577.2228774492029</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_6_Heat.xlsx
+++ b/TEMOA_Europe_Results/_6_Heat.xlsx
@@ -562,7 +562,7 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>58.03027737499999</v>
+        <v>58.03027737499998</v>
       </c>
       <c r="E2">
         <v>44.5913048</v>
@@ -600,7 +600,7 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>637.6618205383645</v>
+        <v>637.6618205383644</v>
       </c>
       <c r="E3">
         <v>430.5016177307103</v>
@@ -714,13 +714,13 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>6.921566999999998</v>
+        <v>6.921566999999999</v>
       </c>
       <c r="E6">
-        <v>5.537253600000001</v>
+        <v>5.5372536</v>
       </c>
       <c r="F6">
-        <v>4.152940200000001</v>
+        <v>4.1529402</v>
       </c>
       <c r="G6">
         <v>2.7686268</v>
@@ -793,7 +793,7 @@
         <v>130.9434068616352</v>
       </c>
       <c r="E8">
-        <v>96.85760966928954</v>
+        <v>96.85760966928956</v>
       </c>
       <c r="F8">
         <v>115.6701</v>
@@ -802,7 +802,7 @@
         <v>63.76314262499999</v>
       </c>
       <c r="H8">
-        <v>57.57527799566871</v>
+        <v>57.5752779956687</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>19.6877848</v>
       </c>
       <c r="I10">
-        <v>9.843892399999998</v>
+        <v>9.843892399999996</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0.04712819375</v>
       </c>
       <c r="F12">
-        <v>0.03770255500000001</v>
+        <v>0.037702555</v>
       </c>
       <c r="G12">
         <v>0.02827691625</v>
@@ -957,7 +957,7 @@
         <v>0.0188512775</v>
       </c>
       <c r="I12">
-        <v>0.009425638749999994</v>
+        <v>0.009425638749999996</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>41.81252139999999</v>
       </c>
       <c r="G13">
-        <v>82.7447613239634</v>
+        <v>82.74476132396339</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>299.2697726000001</v>
       </c>
       <c r="G14">
+        <v>299.2697726000001</v>
+      </c>
+      <c r="H14">
         <v>299.2697726000002</v>
-      </c>
-      <c r="H14">
-        <v>299.2697726000001</v>
       </c>
       <c r="I14">
         <v>299.2697726000001</v>
@@ -1056,13 +1056,13 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>550.8077991999999</v>
+        <v>550.8077992</v>
       </c>
       <c r="E15">
-        <v>371.4834079718727</v>
+        <v>371.4834079718726</v>
       </c>
       <c r="F15">
-        <v>310.8711284731498</v>
+        <v>310.8711284731497</v>
       </c>
       <c r="G15">
         <v>550.8077992</v>
@@ -1094,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>413.0733681200001</v>
+        <v>413.07336812</v>
       </c>
       <c r="E16">
         <v>577.2779567595792</v>
@@ -1106,19 +1106,19 @@
         <v>731.9036235386667</v>
       </c>
       <c r="H16">
-        <v>731.9036235386668</v>
+        <v>731.9036235386666</v>
       </c>
       <c r="I16">
-        <v>731.9036235386666</v>
+        <v>731.9036235386669</v>
       </c>
       <c r="J16">
-        <v>676.406982085147</v>
+        <v>676.4069820851469</v>
       </c>
       <c r="K16">
-        <v>609.9738851814406</v>
+        <v>609.9738851814404</v>
       </c>
       <c r="L16">
-        <v>609.9738851814406</v>
+        <v>609.9738851814404</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1135,13 +1135,13 @@
         <v>21.738383</v>
       </c>
       <c r="E17">
-        <v>33.80837139999999</v>
+        <v>33.8083714</v>
       </c>
       <c r="F17">
         <v>43.10302179999999</v>
       </c>
       <c r="G17">
-        <v>59.12780291211293</v>
+        <v>59.12780291211294</v>
       </c>
       <c r="H17">
         <v>165.9634228569156</v>
@@ -1153,10 +1153,10 @@
         <v>247.9290643531532</v>
       </c>
       <c r="K17">
-        <v>368.3868582061967</v>
+        <v>368.3868582061968</v>
       </c>
       <c r="L17">
-        <v>368.3868582061967</v>
+        <v>368.3868582061968</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1176,10 +1176,10 @@
         <v>1.01487180625</v>
       </c>
       <c r="F18">
+        <v>2.806297444999999</v>
+      </c>
+      <c r="G18">
         <v>2.806297444999998</v>
-      </c>
-      <c r="G18">
-        <v>2.806297444999999</v>
       </c>
       <c r="H18">
         <v>2.656851277499999</v>
@@ -1191,10 +1191,10 @@
         <v>1.158341922403837</v>
       </c>
       <c r="K18">
-        <v>577.2228774492029</v>
+        <v>577.2228774492028</v>
       </c>
       <c r="L18">
-        <v>577.2228774492029</v>
+        <v>577.2228774492028</v>
       </c>
     </row>
   </sheetData>
